--- a/posesiones/1463349.xlsx
+++ b/posesiones/1463349.xlsx
@@ -1739,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>16</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>19</v>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>16</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>27</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>14</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>19</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>42</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>21</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>8</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>18</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>20</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>19</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R43">
         <v>16</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4030,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>19</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>13</v>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R54">
         <v>12</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R56">
         <v>15</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R64">
         <v>17</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>15</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R68">
         <v>22</v>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5074,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>18</v>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R72">
         <v>17</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R74">
         <v>16</v>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R75">
         <v>24</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>25</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6194,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R93">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R94">
         <v>16</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R99">
         <v>6</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6641,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R102">
         <v>37</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R115">
         <v>3</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7408,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R118">
         <v>5</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -7508,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7928,10 +7928,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R130">
         <v>1</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8222,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R135">
         <v>6</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R137">
         <v>24</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8516,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R141">
         <v>20</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8892,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9036,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R152">
         <v>8</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R155">
         <v>15</v>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R159">
         <v>18</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9577,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R163">
         <v>28</v>
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9818,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R168">
         <v>17</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -9921,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R170">
         <v>6</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10065,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10115,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R174">
         <v>17</v>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10218,7 +10218,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R176">
         <v>24</v>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R178">
         <v>26</v>
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10459,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R184">
         <v>28</v>
@@ -10656,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R185">
         <v>24</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R187">
         <v>8</v>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10859,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R189">
         <v>5</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R195">
         <v>31</v>
@@ -11200,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11300,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R198">
         <v>19</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R202">
         <v>21</v>
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11597,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R204">
         <v>8</v>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11700,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R206">
         <v>5</v>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -11944,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R211">
         <v>15</v>
@@ -11997,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R212">
         <v>12</v>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R214">
         <v>8</v>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12300,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R218">
         <v>27</v>
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12541,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R223">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R224">
         <v>14</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12694,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R226">
         <v>28</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R228">
         <v>24</v>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12897,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R230">
         <v>6</v>
@@ -12950,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13138,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13185,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13423,7 +13423,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R241">
         <v>6</v>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13573,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R244">
         <v>34</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R246">
         <v>4</v>
@@ -13729,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R247">
         <v>16</v>
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R253">
         <v>16</v>
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R255">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R257">
         <v>12</v>
@@ -14261,10 +14261,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q258">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14493,10 +14493,10 @@
         <v>1</v>
       </c>
       <c r="P263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q263">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14546,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R264">
         <v>20</v>
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14646,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R266">
         <v>3</v>
@@ -14699,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R267">
         <v>6</v>
@@ -14749,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14799,7 +14799,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R269">
         <v>19</v>
@@ -14852,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14902,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R271">
         <v>8</v>
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15049,7 +15049,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R274">
         <v>29</v>
@@ -15102,7 +15102,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R276">
         <v>19</v>
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R277">
         <v>17</v>
@@ -15258,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R278">
         <v>12</v>
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R279">
         <v>27</v>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15411,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R281">
         <v>18</v>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15514,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R283">
         <v>5</v>
@@ -15564,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15658,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15752,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15802,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R289">
         <v>0</v>
@@ -15852,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -15996,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R294">
         <v>49</v>
@@ -16096,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R295">
         <v>22</v>
@@ -16146,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16190,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16428,7 +16428,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R302">
         <v>26</v>
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R304">
         <v>16</v>
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16631,7 +16631,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R306">
         <v>20</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R308">
         <v>15</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -16972,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17019,7 +17019,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17069,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R315">
         <v>0</v>
@@ -17119,7 +17119,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R318">
         <v>22</v>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17319,7 +17319,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R320">
         <v>19</v>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17419,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R322">
         <v>22</v>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R324">
         <v>25</v>
@@ -17572,7 +17572,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17719,7 +17719,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R328">
         <v>20</v>
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17819,7 +17819,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R330">
         <v>16</v>
@@ -17869,7 +17869,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17919,7 +17919,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R332">
         <v>7</v>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R334">
         <v>20</v>
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18116,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18257,7 +18257,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18351,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R343">
         <v>24</v>
@@ -18498,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18642,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R347">
         <v>31</v>
@@ -18695,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18742,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18836,7 +18836,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18933,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>27</v>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19033,7 +19033,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19080,7 +19080,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19127,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19221,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19271,7 +19271,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R360">
         <v>4</v>
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19371,7 +19371,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19418,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19468,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19518,7 +19518,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R365">
         <v>29</v>
@@ -19571,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R366">
         <v>2</v>
@@ -19615,10 +19615,10 @@
         <v>1</v>
       </c>
       <c r="P367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q367">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19753,10 +19753,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19806,7 +19806,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R371">
         <v>12</v>
@@ -19856,7 +19856,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19906,7 +19906,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R373">
         <v>25</v>
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20053,7 +20053,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R376">
         <v>0</v>
@@ -20106,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R377">
         <v>16</v>
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20209,7 +20209,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R379">
         <v>22</v>
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20406,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20506,7 +20506,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R385">
         <v>32</v>
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20697,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20747,7 +20747,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R390">
         <v>0</v>
@@ -20800,7 +20800,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R391">
         <v>13</v>
@@ -20853,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R392">
         <v>21</v>
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21094,7 +21094,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R397">
         <v>10</v>
@@ -21144,7 +21144,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21382,7 +21382,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R403">
         <v>16</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21485,7 +21485,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R405">
         <v>17</v>
@@ -21538,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21585,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21682,7 +21682,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R409">
         <v>23</v>
@@ -21732,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21782,7 +21782,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R411">
         <v>5</v>
@@ -21829,7 +21829,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21879,7 +21879,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R413">
         <v>24</v>
@@ -21932,7 +21932,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R414">
         <v>20</v>
@@ -21985,7 +21985,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R415">
         <v>21</v>
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22082,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22132,7 +22132,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22182,7 +22182,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R419">
         <v>31</v>
@@ -22235,7 +22235,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R420">
         <v>11</v>
@@ -22285,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22426,7 +22426,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22473,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22520,7 +22520,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22614,7 +22614,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R431">
         <v>26</v>
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22855,7 +22855,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R433">
         <v>14</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -22958,7 +22958,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R435">
         <v>18</v>
@@ -23011,7 +23011,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R436">
         <v>24</v>
@@ -23061,7 +23061,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23111,7 +23111,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R438">
         <v>20</v>
@@ -23164,7 +23164,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23214,7 +23214,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R440">
         <v>6</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23361,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23408,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23458,7 +23458,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R445">
         <v>26</v>
@@ -23511,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R446">
         <v>6</v>
@@ -23564,7 +23564,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R447">
         <v>15</v>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23664,7 +23664,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R449">
         <v>9</v>
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23811,7 +23811,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R452">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23911,7 +23911,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R454">
         <v>7</v>
@@ -23961,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24011,7 +24011,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R456">
         <v>17</v>
@@ -24064,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24114,7 +24114,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R458">
         <v>14</v>
@@ -24167,7 +24167,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R459">
         <v>21</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24264,7 +24264,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24314,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24364,7 +24364,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R463">
         <v>19</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24467,7 +24467,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R465">
         <v>19</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24567,7 +24567,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R467">
         <v>7</v>
@@ -24611,10 +24611,10 @@
         <v>1</v>
       </c>
       <c r="P468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
